--- a/trunk/doc/数值设计/模块层/武将数据大全.xlsx
+++ b/trunk/doc/数值设计/模块层/武将数据大全.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="816">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="823">
   <si>
     <t>ID</t>
   </si>
@@ -1678,9 +1678,6 @@
   </si>
   <si>
     <t>邓艾</t>
-  </si>
-  <si>
-    <t>部队</t>
   </si>
   <si>
     <t>黨均</t>
@@ -2470,6 +2467,38 @@
   </si>
   <si>
     <t>总和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>略「</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骑将</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勇将</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁壁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2888,7 +2917,7 @@
   <dimension ref="B2:I734"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2904,7 +2933,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>3</v>
@@ -2913,10 +2942,10 @@
         <v>4</v>
       </c>
       <c r="H2" s="4" t="s">
+        <v>813</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>814</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>815</v>
       </c>
     </row>
     <row r="3" spans="2:9">
@@ -3251,7 +3280,7 @@
         <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>23</v>
+        <v>815</v>
       </c>
       <c r="E15" s="1">
         <v>66</v>
@@ -3332,7 +3361,7 @@
         <v>27</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>28</v>
+        <v>816</v>
       </c>
       <c r="E18" s="1">
         <v>44</v>
@@ -4529,14 +4558,14 @@
         <v>48</v>
       </c>
       <c r="G62" s="1">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H62" s="1">
         <v>85</v>
       </c>
       <c r="I62" s="1">
         <f>SUM(E62:H62)</f>
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="63" spans="2:9">
@@ -4610,14 +4639,14 @@
         <v>17</v>
       </c>
       <c r="G65" s="1">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H65" s="1">
         <v>84</v>
       </c>
       <c r="I65" s="1">
         <f>SUM(E65:H65)</f>
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="66" spans="2:9">
@@ -5195,7 +5224,7 @@
         <v>116</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>51</v>
+        <v>818</v>
       </c>
       <c r="E87" s="1">
         <v>106</v>
@@ -5546,7 +5575,7 @@
         <v>133</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E100" s="1">
         <v>102</v>
@@ -9770,11 +9799,11 @@
         <v>98</v>
       </c>
       <c r="H256" s="1">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="I256" s="1">
         <f>SUM(E256:H256)</f>
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="257" spans="2:9">
@@ -10703,7 +10732,7 @@
         <v>347</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>6</v>
+        <v>817</v>
       </c>
       <c r="E291" s="1">
         <v>97</v>
@@ -10712,14 +10741,14 @@
         <v>38</v>
       </c>
       <c r="G291" s="1">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="H291" s="1">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="I291" s="1">
         <f>SUM(E291:H291)</f>
-        <v>365</v>
+        <v>370</v>
       </c>
     </row>
     <row r="292" spans="2:9">
@@ -12107,7 +12136,7 @@
         <v>404</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>208</v>
+        <v>822</v>
       </c>
       <c r="E343" s="1">
         <v>98</v>
@@ -12890,7 +12919,7 @@
         <v>435</v>
       </c>
       <c r="D372" s="2" t="s">
-        <v>51</v>
+        <v>819</v>
       </c>
       <c r="E372" s="1">
         <v>105</v>
@@ -14564,7 +14593,7 @@
         <v>500</v>
       </c>
       <c r="D434" s="5" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E434" s="1">
         <v>90</v>
@@ -15887,7 +15916,7 @@
         <v>552</v>
       </c>
       <c r="D483" s="2" t="s">
-        <v>553</v>
+        <v>820</v>
       </c>
       <c r="E483" s="1">
         <v>100</v>
@@ -15911,7 +15940,7 @@
         <v>482</v>
       </c>
       <c r="C484" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D484" s="2" t="s">
         <v>6</v>
@@ -15938,7 +15967,7 @@
         <v>483</v>
       </c>
       <c r="C485" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D485" s="2" t="s">
         <v>6</v>
@@ -15965,7 +15994,7 @@
         <v>484</v>
       </c>
       <c r="C486" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D486" s="2" t="s">
         <v>6</v>
@@ -15992,7 +16021,7 @@
         <v>485</v>
       </c>
       <c r="C487" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D487" s="2" t="s">
         <v>6</v>
@@ -16019,7 +16048,7 @@
         <v>486</v>
       </c>
       <c r="C488" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D488" s="2" t="s">
         <v>151</v>
@@ -16046,7 +16075,7 @@
         <v>487</v>
       </c>
       <c r="C489" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D489" s="2" t="s">
         <v>57</v>
@@ -16073,7 +16102,7 @@
         <v>488</v>
       </c>
       <c r="C490" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D490" s="2" t="s">
         <v>293</v>
@@ -16100,7 +16129,7 @@
         <v>489</v>
       </c>
       <c r="C491" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D491" s="2" t="s">
         <v>6</v>
@@ -16127,7 +16156,7 @@
         <v>490</v>
       </c>
       <c r="C492" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D492" s="2" t="s">
         <v>6</v>
@@ -16154,7 +16183,7 @@
         <v>491</v>
       </c>
       <c r="C493" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D493" s="2" t="s">
         <v>6</v>
@@ -16181,7 +16210,7 @@
         <v>492</v>
       </c>
       <c r="C494" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D494" s="2" t="s">
         <v>217</v>
@@ -16208,7 +16237,7 @@
         <v>493</v>
       </c>
       <c r="C495" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D495" s="2" t="s">
         <v>6</v>
@@ -16235,7 +16264,7 @@
         <v>494</v>
       </c>
       <c r="C496" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D496" s="2" t="s">
         <v>42</v>
@@ -16262,7 +16291,7 @@
         <v>495</v>
       </c>
       <c r="C497" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D497" s="2" t="s">
         <v>6</v>
@@ -16289,7 +16318,7 @@
         <v>496</v>
       </c>
       <c r="C498" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D498" s="2" t="s">
         <v>6</v>
@@ -16316,7 +16345,7 @@
         <v>497</v>
       </c>
       <c r="C499" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D499" s="2" t="s">
         <v>6</v>
@@ -16343,7 +16372,7 @@
         <v>498</v>
       </c>
       <c r="C500" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D500" s="2" t="s">
         <v>6</v>
@@ -16370,7 +16399,7 @@
         <v>499</v>
       </c>
       <c r="C501" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D501" s="2" t="s">
         <v>6</v>
@@ -16397,7 +16426,7 @@
         <v>500</v>
       </c>
       <c r="C502" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D502" s="2" t="s">
         <v>217</v>
@@ -16424,7 +16453,7 @@
         <v>501</v>
       </c>
       <c r="C503" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D503" s="2" t="s">
         <v>127</v>
@@ -16451,7 +16480,7 @@
         <v>502</v>
       </c>
       <c r="C504" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D504" s="2" t="s">
         <v>142</v>
@@ -16478,7 +16507,7 @@
         <v>503</v>
       </c>
       <c r="C505" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D505" s="2" t="s">
         <v>6</v>
@@ -16505,7 +16534,7 @@
         <v>504</v>
       </c>
       <c r="C506" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D506" s="2" t="s">
         <v>11</v>
@@ -16532,7 +16561,7 @@
         <v>505</v>
       </c>
       <c r="C507" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D507" s="2" t="s">
         <v>51</v>
@@ -16559,7 +16588,7 @@
         <v>506</v>
       </c>
       <c r="C508" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D508" s="2" t="s">
         <v>6</v>
@@ -16586,7 +16615,7 @@
         <v>507</v>
       </c>
       <c r="C509" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D509" s="2" t="s">
         <v>118</v>
@@ -16613,7 +16642,7 @@
         <v>508</v>
       </c>
       <c r="C510" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D510" s="2" t="s">
         <v>11</v>
@@ -16640,7 +16669,7 @@
         <v>509</v>
       </c>
       <c r="C511" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D511" s="2" t="s">
         <v>46</v>
@@ -16667,7 +16696,7 @@
         <v>510</v>
       </c>
       <c r="C512" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D512" s="2" t="s">
         <v>6</v>
@@ -16694,7 +16723,7 @@
         <v>511</v>
       </c>
       <c r="C513" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D513" s="2" t="s">
         <v>123</v>
@@ -16721,7 +16750,7 @@
         <v>512</v>
       </c>
       <c r="C514" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D514" s="2" t="s">
         <v>67</v>
@@ -16748,7 +16777,7 @@
         <v>513</v>
       </c>
       <c r="C515" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D515" s="2" t="s">
         <v>17</v>
@@ -16775,7 +16804,7 @@
         <v>514</v>
       </c>
       <c r="C516" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D516" s="2" t="s">
         <v>44</v>
@@ -16802,10 +16831,10 @@
         <v>515</v>
       </c>
       <c r="C517" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="D517" s="2" t="s">
         <v>586</v>
-      </c>
-      <c r="D517" s="2" t="s">
-        <v>587</v>
       </c>
       <c r="E517" s="1">
         <v>91</v>
@@ -16829,7 +16858,7 @@
         <v>516</v>
       </c>
       <c r="C518" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D518" s="2" t="s">
         <v>156</v>
@@ -16856,7 +16885,7 @@
         <v>517</v>
       </c>
       <c r="C519" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D519" s="2" t="s">
         <v>25</v>
@@ -16883,7 +16912,7 @@
         <v>518</v>
       </c>
       <c r="C520" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D520" s="2" t="s">
         <v>6</v>
@@ -16910,7 +16939,7 @@
         <v>519</v>
       </c>
       <c r="C521" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D521" s="2" t="s">
         <v>75</v>
@@ -16937,7 +16966,7 @@
         <v>520</v>
       </c>
       <c r="C522" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D522" s="2" t="s">
         <v>6</v>
@@ -16964,7 +16993,7 @@
         <v>521</v>
       </c>
       <c r="C523" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D523" s="2" t="s">
         <v>6</v>
@@ -16991,10 +17020,10 @@
         <v>522</v>
       </c>
       <c r="C524" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="D524" s="2" t="s">
         <v>594</v>
-      </c>
-      <c r="D524" s="2" t="s">
-        <v>595</v>
       </c>
       <c r="E524" s="1">
         <v>23</v>
@@ -17018,7 +17047,7 @@
         <v>523</v>
       </c>
       <c r="C525" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D525" s="2" t="s">
         <v>6</v>
@@ -17045,7 +17074,7 @@
         <v>524</v>
       </c>
       <c r="C526" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D526" s="2" t="s">
         <v>17</v>
@@ -17072,7 +17101,7 @@
         <v>525</v>
       </c>
       <c r="C527" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D527" s="2" t="s">
         <v>6</v>
@@ -17099,7 +17128,7 @@
         <v>526</v>
       </c>
       <c r="C528" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D528" s="2" t="s">
         <v>6</v>
@@ -17126,7 +17155,7 @@
         <v>527</v>
       </c>
       <c r="C529" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D529" s="2" t="s">
         <v>6</v>
@@ -17153,7 +17182,7 @@
         <v>528</v>
       </c>
       <c r="C530" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D530" s="2" t="s">
         <v>75</v>
@@ -17180,7 +17209,7 @@
         <v>529</v>
       </c>
       <c r="C531" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D531" s="2" t="s">
         <v>6</v>
@@ -17207,7 +17236,7 @@
         <v>530</v>
       </c>
       <c r="C532" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D532" s="2" t="s">
         <v>6</v>
@@ -17234,10 +17263,10 @@
         <v>531</v>
       </c>
       <c r="C533" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D533" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E533" s="1">
         <v>12</v>
@@ -17261,10 +17290,10 @@
         <v>532</v>
       </c>
       <c r="C534" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="D534" s="2" t="s">
         <v>605</v>
-      </c>
-      <c r="D534" s="2" t="s">
-        <v>606</v>
       </c>
       <c r="E534" s="1">
         <v>33</v>
@@ -17288,7 +17317,7 @@
         <v>533</v>
       </c>
       <c r="C535" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D535" s="2" t="s">
         <v>6</v>
@@ -17315,7 +17344,7 @@
         <v>534</v>
       </c>
       <c r="C536" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D536" s="2" t="s">
         <v>6</v>
@@ -17342,7 +17371,7 @@
         <v>535</v>
       </c>
       <c r="C537" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D537" s="2" t="s">
         <v>6</v>
@@ -17369,7 +17398,7 @@
         <v>536</v>
       </c>
       <c r="C538" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D538" s="2" t="s">
         <v>6</v>
@@ -17396,7 +17425,7 @@
         <v>537</v>
       </c>
       <c r="C539" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D539" s="2" t="s">
         <v>6</v>
@@ -17423,7 +17452,7 @@
         <v>538</v>
       </c>
       <c r="C540" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D540" s="2" t="s">
         <v>6</v>
@@ -17450,7 +17479,7 @@
         <v>539</v>
       </c>
       <c r="C541" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D541" s="2" t="s">
         <v>61</v>
@@ -17477,7 +17506,7 @@
         <v>540</v>
       </c>
       <c r="C542" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D542" s="2" t="s">
         <v>6</v>
@@ -17504,7 +17533,7 @@
         <v>541</v>
       </c>
       <c r="C543" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D543" s="2" t="s">
         <v>167</v>
@@ -17531,7 +17560,7 @@
         <v>542</v>
       </c>
       <c r="C544" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D544" s="2" t="s">
         <v>109</v>
@@ -17558,7 +17587,7 @@
         <v>543</v>
       </c>
       <c r="C545" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D545" s="2" t="s">
         <v>6</v>
@@ -17585,7 +17614,7 @@
         <v>544</v>
       </c>
       <c r="C546" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D546" s="2" t="s">
         <v>6</v>
@@ -17612,7 +17641,7 @@
         <v>545</v>
       </c>
       <c r="C547" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D547" s="2" t="s">
         <v>51</v>
@@ -17639,7 +17668,7 @@
         <v>546</v>
       </c>
       <c r="C548" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D548" s="2" t="s">
         <v>96</v>
@@ -17666,7 +17695,7 @@
         <v>547</v>
       </c>
       <c r="C549" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D549" s="2" t="s">
         <v>6</v>
@@ -17693,7 +17722,7 @@
         <v>548</v>
       </c>
       <c r="C550" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D550" s="2" t="s">
         <v>324</v>
@@ -17720,7 +17749,7 @@
         <v>549</v>
       </c>
       <c r="C551" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D551" s="2" t="s">
         <v>6</v>
@@ -17747,7 +17776,7 @@
         <v>550</v>
       </c>
       <c r="C552" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D552" s="2" t="s">
         <v>6</v>
@@ -17774,7 +17803,7 @@
         <v>551</v>
       </c>
       <c r="C553" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D553" s="2" t="s">
         <v>6</v>
@@ -17801,7 +17830,7 @@
         <v>552</v>
       </c>
       <c r="C554" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D554" s="2" t="s">
         <v>6</v>
@@ -17828,7 +17857,7 @@
         <v>553</v>
       </c>
       <c r="C555" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D555" s="2" t="s">
         <v>6</v>
@@ -17855,7 +17884,7 @@
         <v>554</v>
       </c>
       <c r="C556" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D556" s="2" t="s">
         <v>167</v>
@@ -17882,7 +17911,7 @@
         <v>555</v>
       </c>
       <c r="C557" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D557" s="2" t="s">
         <v>163</v>
@@ -17909,7 +17938,7 @@
         <v>556</v>
       </c>
       <c r="C558" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D558" s="2" t="s">
         <v>69</v>
@@ -17936,10 +17965,10 @@
         <v>557</v>
       </c>
       <c r="C559" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="D559" s="2" t="s">
         <v>631</v>
-      </c>
-      <c r="D559" s="2" t="s">
-        <v>632</v>
       </c>
       <c r="E559" s="1">
         <v>78</v>
@@ -17948,14 +17977,14 @@
         <v>34</v>
       </c>
       <c r="G559" s="1">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H559" s="1">
         <v>85</v>
       </c>
       <c r="I559" s="1">
         <f>SUM(E559:H559)</f>
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="560" spans="2:9">
@@ -17963,7 +17992,7 @@
         <v>558</v>
       </c>
       <c r="C560" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D560" s="2" t="s">
         <v>224</v>
@@ -17990,7 +18019,7 @@
         <v>559</v>
       </c>
       <c r="C561" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D561" s="2" t="s">
         <v>6</v>
@@ -18017,7 +18046,7 @@
         <v>560</v>
       </c>
       <c r="C562" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D562" s="2" t="s">
         <v>6</v>
@@ -18044,7 +18073,7 @@
         <v>561</v>
       </c>
       <c r="C563" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D563" s="2" t="s">
         <v>6</v>
@@ -18071,7 +18100,7 @@
         <v>562</v>
       </c>
       <c r="C564" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D564" s="2" t="s">
         <v>6</v>
@@ -18098,7 +18127,7 @@
         <v>563</v>
       </c>
       <c r="C565" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D565" s="2" t="s">
         <v>160</v>
@@ -18125,10 +18154,10 @@
         <v>564</v>
       </c>
       <c r="C566" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="D566" s="2" t="s">
         <v>639</v>
-      </c>
-      <c r="D566" s="2" t="s">
-        <v>640</v>
       </c>
       <c r="E566" s="1">
         <v>72</v>
@@ -18152,7 +18181,7 @@
         <v>565</v>
       </c>
       <c r="C567" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D567" s="2" t="s">
         <v>6</v>
@@ -18179,7 +18208,7 @@
         <v>566</v>
       </c>
       <c r="C568" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D568" s="2" t="s">
         <v>163</v>
@@ -18206,7 +18235,7 @@
         <v>567</v>
       </c>
       <c r="C569" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D569" s="2" t="s">
         <v>6</v>
@@ -18233,7 +18262,7 @@
         <v>568</v>
       </c>
       <c r="C570" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D570" s="2" t="s">
         <v>69</v>
@@ -18260,7 +18289,7 @@
         <v>569</v>
       </c>
       <c r="C571" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D571" s="2" t="s">
         <v>6</v>
@@ -18287,7 +18316,7 @@
         <v>570</v>
       </c>
       <c r="C572" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D572" s="2" t="s">
         <v>6</v>
@@ -18314,7 +18343,7 @@
         <v>571</v>
       </c>
       <c r="C573" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D573" s="2" t="s">
         <v>46</v>
@@ -18341,7 +18370,7 @@
         <v>572</v>
       </c>
       <c r="C574" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D574" s="2" t="s">
         <v>6</v>
@@ -18368,7 +18397,7 @@
         <v>573</v>
       </c>
       <c r="C575" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D575" s="2" t="s">
         <v>6</v>
@@ -18395,7 +18424,7 @@
         <v>574</v>
       </c>
       <c r="C576" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D576" s="2" t="s">
         <v>46</v>
@@ -18422,7 +18451,7 @@
         <v>575</v>
       </c>
       <c r="C577" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D577" s="2" t="s">
         <v>6</v>
@@ -18449,7 +18478,7 @@
         <v>576</v>
       </c>
       <c r="C578" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D578" s="2" t="s">
         <v>6</v>
@@ -18476,7 +18505,7 @@
         <v>577</v>
       </c>
       <c r="C579" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D579" s="2" t="s">
         <v>352</v>
@@ -18503,7 +18532,7 @@
         <v>578</v>
       </c>
       <c r="C580" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D580" s="2" t="s">
         <v>6</v>
@@ -18530,7 +18559,7 @@
         <v>579</v>
       </c>
       <c r="C581" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D581" s="2" t="s">
         <v>6</v>
@@ -18557,7 +18586,7 @@
         <v>580</v>
       </c>
       <c r="C582" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D582" s="2" t="s">
         <v>6</v>
@@ -18584,7 +18613,7 @@
         <v>581</v>
       </c>
       <c r="C583" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D583" s="2" t="s">
         <v>6</v>
@@ -18611,7 +18640,7 @@
         <v>582</v>
       </c>
       <c r="C584" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D584" s="2" t="s">
         <v>6</v>
@@ -18638,7 +18667,7 @@
         <v>583</v>
       </c>
       <c r="C585" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D585" s="2" t="s">
         <v>6</v>
@@ -18665,7 +18694,7 @@
         <v>584</v>
       </c>
       <c r="C586" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D586" s="2" t="s">
         <v>6</v>
@@ -18692,7 +18721,7 @@
         <v>585</v>
       </c>
       <c r="C587" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D587" s="2" t="s">
         <v>6</v>
@@ -18719,7 +18748,7 @@
         <v>586</v>
       </c>
       <c r="C588" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D588" s="2" t="s">
         <v>6</v>
@@ -18746,7 +18775,7 @@
         <v>587</v>
       </c>
       <c r="C589" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D589" s="2" t="s">
         <v>6</v>
@@ -18773,7 +18802,7 @@
         <v>588</v>
       </c>
       <c r="C590" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D590" s="2" t="s">
         <v>6</v>
@@ -18800,7 +18829,7 @@
         <v>589</v>
       </c>
       <c r="C591" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D591" s="2" t="s">
         <v>6</v>
@@ -18827,7 +18856,7 @@
         <v>590</v>
       </c>
       <c r="C592" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D592" s="2" t="s">
         <v>6</v>
@@ -18854,7 +18883,7 @@
         <v>591</v>
       </c>
       <c r="C593" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D593" s="2" t="s">
         <v>6</v>
@@ -18881,7 +18910,7 @@
         <v>592</v>
       </c>
       <c r="C594" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D594" s="2" t="s">
         <v>6</v>
@@ -18908,7 +18937,7 @@
         <v>593</v>
       </c>
       <c r="C595" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D595" s="2" t="s">
         <v>6</v>
@@ -18935,7 +18964,7 @@
         <v>594</v>
       </c>
       <c r="C596" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D596" s="2" t="s">
         <v>386</v>
@@ -18962,7 +18991,7 @@
         <v>595</v>
       </c>
       <c r="C597" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D597" s="2" t="s">
         <v>208</v>
@@ -18989,7 +19018,7 @@
         <v>596</v>
       </c>
       <c r="C598" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D598" s="2" t="s">
         <v>6</v>
@@ -19016,7 +19045,7 @@
         <v>597</v>
       </c>
       <c r="C599" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D599" s="2" t="s">
         <v>28</v>
@@ -19043,7 +19072,7 @@
         <v>598</v>
       </c>
       <c r="C600" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D600" s="2" t="s">
         <v>6</v>
@@ -19070,7 +19099,7 @@
         <v>599</v>
       </c>
       <c r="C601" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D601" s="2" t="s">
         <v>6</v>
@@ -19097,7 +19126,7 @@
         <v>600</v>
       </c>
       <c r="C602" s="2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D602" s="2" t="s">
         <v>352</v>
@@ -19124,7 +19153,7 @@
         <v>601</v>
       </c>
       <c r="C603" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D603" s="2" t="s">
         <v>46</v>
@@ -19151,7 +19180,7 @@
         <v>602</v>
       </c>
       <c r="C604" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D604" s="2" t="s">
         <v>90</v>
@@ -19178,7 +19207,7 @@
         <v>603</v>
       </c>
       <c r="C605" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D605" s="2" t="s">
         <v>92</v>
@@ -19205,7 +19234,7 @@
         <v>604</v>
       </c>
       <c r="C606" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D606" s="2" t="s">
         <v>6</v>
@@ -19232,7 +19261,7 @@
         <v>605</v>
       </c>
       <c r="C607" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D607" s="2" t="s">
         <v>6</v>
@@ -19259,7 +19288,7 @@
         <v>606</v>
       </c>
       <c r="C608" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D608" s="2" t="s">
         <v>6</v>
@@ -19286,7 +19315,7 @@
         <v>607</v>
       </c>
       <c r="C609" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D609" s="2" t="s">
         <v>6</v>
@@ -19313,7 +19342,7 @@
         <v>608</v>
       </c>
       <c r="C610" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D610" s="2" t="s">
         <v>42</v>
@@ -19340,10 +19369,10 @@
         <v>609</v>
       </c>
       <c r="C611" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D611" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E611" s="1">
         <v>78</v>
@@ -19367,7 +19396,7 @@
         <v>610</v>
       </c>
       <c r="C612" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D612" s="2" t="s">
         <v>6</v>
@@ -19394,7 +19423,7 @@
         <v>611</v>
       </c>
       <c r="C613" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D613" s="2" t="s">
         <v>217</v>
@@ -19421,7 +19450,7 @@
         <v>612</v>
       </c>
       <c r="C614" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D614" s="2" t="s">
         <v>6</v>
@@ -19448,7 +19477,7 @@
         <v>613</v>
       </c>
       <c r="C615" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D615" s="2" t="s">
         <v>6</v>
@@ -19475,7 +19504,7 @@
         <v>614</v>
       </c>
       <c r="C616" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D616" s="2" t="s">
         <v>6</v>
@@ -19502,7 +19531,7 @@
         <v>615</v>
       </c>
       <c r="C617" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D617" s="2" t="s">
         <v>6</v>
@@ -19529,7 +19558,7 @@
         <v>616</v>
       </c>
       <c r="C618" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D618" s="2" t="s">
         <v>6</v>
@@ -19556,7 +19585,7 @@
         <v>617</v>
       </c>
       <c r="C619" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D619" s="2" t="s">
         <v>6</v>
@@ -19583,7 +19612,7 @@
         <v>618</v>
       </c>
       <c r="C620" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D620" s="2" t="s">
         <v>23</v>
@@ -19610,7 +19639,7 @@
         <v>619</v>
       </c>
       <c r="C621" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D621" s="2" t="s">
         <v>6</v>
@@ -19637,7 +19666,7 @@
         <v>620</v>
       </c>
       <c r="C622" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D622" s="2" t="s">
         <v>6</v>
@@ -19664,7 +19693,7 @@
         <v>621</v>
       </c>
       <c r="C623" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D623" s="2" t="s">
         <v>293</v>
@@ -19691,7 +19720,7 @@
         <v>622</v>
       </c>
       <c r="C624" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D624" s="2" t="s">
         <v>6</v>
@@ -19718,7 +19747,7 @@
         <v>623</v>
       </c>
       <c r="C625" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D625" s="2" t="s">
         <v>6</v>
@@ -19745,7 +19774,7 @@
         <v>624</v>
       </c>
       <c r="C626" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D626" s="2" t="s">
         <v>6</v>
@@ -19772,7 +19801,7 @@
         <v>625</v>
       </c>
       <c r="C627" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D627" s="2" t="s">
         <v>6</v>
@@ -19799,7 +19828,7 @@
         <v>626</v>
       </c>
       <c r="C628" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D628" s="2" t="s">
         <v>6</v>
@@ -19826,7 +19855,7 @@
         <v>627</v>
       </c>
       <c r="C629" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D629" s="2" t="s">
         <v>39</v>
@@ -19853,7 +19882,7 @@
         <v>628</v>
       </c>
       <c r="C630" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D630" s="2" t="s">
         <v>6</v>
@@ -19880,10 +19909,10 @@
         <v>629</v>
       </c>
       <c r="C631" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="D631" s="2" t="s">
         <v>704</v>
-      </c>
-      <c r="D631" s="2" t="s">
-        <v>705</v>
       </c>
       <c r="E631" s="1">
         <v>3</v>
@@ -19907,7 +19936,7 @@
         <v>630</v>
       </c>
       <c r="C632" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D632" s="2" t="s">
         <v>6</v>
@@ -19934,7 +19963,7 @@
         <v>631</v>
       </c>
       <c r="C633" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D633" s="2" t="s">
         <v>6</v>
@@ -19961,7 +19990,7 @@
         <v>632</v>
       </c>
       <c r="C634" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D634" s="2" t="s">
         <v>6</v>
@@ -19988,7 +20017,7 @@
         <v>633</v>
       </c>
       <c r="C635" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D635" s="2" t="s">
         <v>6</v>
@@ -20015,7 +20044,7 @@
         <v>634</v>
       </c>
       <c r="C636" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D636" s="2" t="s">
         <v>6</v>
@@ -20042,10 +20071,10 @@
         <v>635</v>
       </c>
       <c r="C637" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="D637" s="2" t="s">
         <v>711</v>
-      </c>
-      <c r="D637" s="2" t="s">
-        <v>712</v>
       </c>
       <c r="E637" s="1">
         <v>84</v>
@@ -20069,7 +20098,7 @@
         <v>636</v>
       </c>
       <c r="C638" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D638" s="2" t="s">
         <v>6</v>
@@ -20096,7 +20125,7 @@
         <v>637</v>
       </c>
       <c r="C639" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D639" s="2" t="s">
         <v>142</v>
@@ -20123,7 +20152,7 @@
         <v>638</v>
       </c>
       <c r="C640" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D640" s="2" t="s">
         <v>82</v>
@@ -20150,7 +20179,7 @@
         <v>639</v>
       </c>
       <c r="C641" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D641" s="2" t="s">
         <v>69</v>
@@ -20177,7 +20206,7 @@
         <v>640</v>
       </c>
       <c r="C642" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D642" s="2" t="s">
         <v>42</v>
@@ -20204,10 +20233,10 @@
         <v>641</v>
       </c>
       <c r="C643" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D643" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E643" s="1">
         <v>36</v>
@@ -20231,7 +20260,7 @@
         <v>642</v>
       </c>
       <c r="C644" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D644" s="2" t="s">
         <v>6</v>
@@ -20258,7 +20287,7 @@
         <v>643</v>
       </c>
       <c r="C645" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D645" s="2" t="s">
         <v>82</v>
@@ -20285,7 +20314,7 @@
         <v>644</v>
       </c>
       <c r="C646" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D646" s="2" t="s">
         <v>6</v>
@@ -20312,7 +20341,7 @@
         <v>645</v>
       </c>
       <c r="C647" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D647" s="2" t="s">
         <v>398</v>
@@ -20339,7 +20368,7 @@
         <v>646</v>
       </c>
       <c r="C648" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D648" s="2" t="s">
         <v>6</v>
@@ -20366,7 +20395,7 @@
         <v>647</v>
       </c>
       <c r="C649" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D649" s="2" t="s">
         <v>6</v>
@@ -20393,7 +20422,7 @@
         <v>648</v>
       </c>
       <c r="C650" s="2" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D650" s="2" t="s">
         <v>25</v>
@@ -20420,7 +20449,7 @@
         <v>649</v>
       </c>
       <c r="C651" s="2" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D651" s="2" t="s">
         <v>6</v>
@@ -20447,7 +20476,7 @@
         <v>650</v>
       </c>
       <c r="C652" s="2" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D652" s="2" t="s">
         <v>304</v>
@@ -20474,7 +20503,7 @@
         <v>651</v>
       </c>
       <c r="C653" s="2" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D653" s="2" t="s">
         <v>304</v>
@@ -20501,7 +20530,7 @@
         <v>652</v>
       </c>
       <c r="C654" s="2" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D654" s="2" t="s">
         <v>6</v>
@@ -20528,7 +20557,7 @@
         <v>653</v>
       </c>
       <c r="C655" s="2" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D655" s="2" t="s">
         <v>6</v>
@@ -20555,7 +20584,7 @@
         <v>654</v>
       </c>
       <c r="C656" s="2" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D656" s="2" t="s">
         <v>270</v>
@@ -20582,7 +20611,7 @@
         <v>655</v>
       </c>
       <c r="C657" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D657" s="2" t="s">
         <v>393</v>
@@ -20609,7 +20638,7 @@
         <v>656</v>
       </c>
       <c r="C658" s="2" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D658" s="2" t="s">
         <v>6</v>
@@ -20636,7 +20665,7 @@
         <v>657</v>
       </c>
       <c r="C659" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D659" s="2" t="s">
         <v>6</v>
@@ -20663,7 +20692,7 @@
         <v>658</v>
       </c>
       <c r="C660" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D660" s="2" t="s">
         <v>270</v>
@@ -20690,7 +20719,7 @@
         <v>659</v>
       </c>
       <c r="C661" s="2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D661" s="2" t="s">
         <v>57</v>
@@ -20717,10 +20746,10 @@
         <v>660</v>
       </c>
       <c r="C662" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="D662" s="2" t="s">
         <v>737</v>
-      </c>
-      <c r="D662" s="2" t="s">
-        <v>738</v>
       </c>
       <c r="E662" s="1">
         <v>95</v>
@@ -20744,10 +20773,10 @@
         <v>661</v>
       </c>
       <c r="C663" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D663" s="2" t="s">
-        <v>527</v>
+        <v>821</v>
       </c>
       <c r="E663" s="1">
         <v>99</v>
@@ -20771,7 +20800,7 @@
         <v>662</v>
       </c>
       <c r="C664" s="2" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D664" s="2" t="s">
         <v>145</v>
@@ -20798,7 +20827,7 @@
         <v>663</v>
       </c>
       <c r="C665" s="2" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D665" s="2" t="s">
         <v>6</v>
@@ -20825,7 +20854,7 @@
         <v>664</v>
       </c>
       <c r="C666" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D666" s="2" t="s">
         <v>69</v>
@@ -20852,7 +20881,7 @@
         <v>665</v>
       </c>
       <c r="C667" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D667" s="2" t="s">
         <v>82</v>
@@ -20879,7 +20908,7 @@
         <v>666</v>
       </c>
       <c r="C668" s="2" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D668" s="2" t="s">
         <v>318</v>
@@ -20906,10 +20935,10 @@
         <v>667</v>
       </c>
       <c r="C669" s="2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D669" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E669" s="1">
         <v>80</v>
@@ -20933,7 +20962,7 @@
         <v>668</v>
       </c>
       <c r="C670" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D670" s="2" t="s">
         <v>270</v>
@@ -20960,7 +20989,7 @@
         <v>669</v>
       </c>
       <c r="C671" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D671" s="2" t="s">
         <v>6</v>
@@ -20987,7 +21016,7 @@
         <v>670</v>
       </c>
       <c r="C672" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D672" s="2" t="s">
         <v>6</v>
@@ -21014,7 +21043,7 @@
         <v>699</v>
       </c>
       <c r="C673" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D673" s="2" t="s">
         <v>6</v>
@@ -21041,7 +21070,7 @@
         <v>700</v>
       </c>
       <c r="C674" s="2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D674" s="2" t="s">
         <v>6</v>
@@ -21068,7 +21097,7 @@
         <v>701</v>
       </c>
       <c r="C675" s="2" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D675" s="2" t="s">
         <v>6</v>
@@ -21095,7 +21124,7 @@
         <v>702</v>
       </c>
       <c r="C676" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D676" s="2" t="s">
         <v>318</v>
@@ -21122,7 +21151,7 @@
         <v>703</v>
       </c>
       <c r="C677" s="2" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D677" s="2" t="s">
         <v>6</v>
@@ -21149,10 +21178,10 @@
         <v>704</v>
       </c>
       <c r="C678" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="D678" s="2" t="s">
         <v>754</v>
-      </c>
-      <c r="D678" s="2" t="s">
-        <v>755</v>
       </c>
       <c r="E678" s="1">
         <v>13</v>
@@ -21176,7 +21205,7 @@
         <v>705</v>
       </c>
       <c r="C679" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D679" s="2" t="s">
         <v>6</v>
@@ -21203,7 +21232,7 @@
         <v>706</v>
       </c>
       <c r="C680" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D680" s="2" t="s">
         <v>470</v>
@@ -21230,7 +21259,7 @@
         <v>707</v>
       </c>
       <c r="C681" s="2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D681" s="2" t="s">
         <v>121</v>
@@ -21257,7 +21286,7 @@
         <v>708</v>
       </c>
       <c r="C682" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D682" s="2" t="s">
         <v>6</v>
@@ -21284,7 +21313,7 @@
         <v>709</v>
       </c>
       <c r="C683" s="2" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D683" s="2" t="s">
         <v>6</v>
@@ -21311,7 +21340,7 @@
         <v>710</v>
       </c>
       <c r="C684" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D684" s="2" t="s">
         <v>6</v>
@@ -21338,7 +21367,7 @@
         <v>711</v>
       </c>
       <c r="C685" s="2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D685" s="2" t="s">
         <v>6</v>
@@ -21365,7 +21394,7 @@
         <v>712</v>
       </c>
       <c r="C686" s="2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D686" s="2" t="s">
         <v>6</v>
@@ -21392,7 +21421,7 @@
         <v>713</v>
       </c>
       <c r="C687" s="2" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D687" s="2" t="s">
         <v>6</v>
@@ -21419,7 +21448,7 @@
         <v>714</v>
       </c>
       <c r="C688" s="2" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D688" s="2" t="s">
         <v>6</v>
@@ -21446,7 +21475,7 @@
         <v>715</v>
       </c>
       <c r="C689" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D689" s="2" t="s">
         <v>6</v>
@@ -21473,7 +21502,7 @@
         <v>716</v>
       </c>
       <c r="C690" s="2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D690" s="2" t="s">
         <v>6</v>
@@ -21500,7 +21529,7 @@
         <v>719</v>
       </c>
       <c r="C691" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D691" s="2" t="s">
         <v>6</v>
@@ -21527,7 +21556,7 @@
         <v>720</v>
       </c>
       <c r="C692" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D692" s="2" t="s">
         <v>6</v>
@@ -21554,7 +21583,7 @@
         <v>721</v>
       </c>
       <c r="C693" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D693" s="2" t="s">
         <v>6</v>
@@ -21581,7 +21610,7 @@
         <v>722</v>
       </c>
       <c r="C694" s="2" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D694" s="2" t="s">
         <v>6</v>
@@ -21608,7 +21637,7 @@
         <v>723</v>
       </c>
       <c r="C695" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D695" s="2" t="s">
         <v>6</v>
@@ -21635,7 +21664,7 @@
         <v>724</v>
       </c>
       <c r="C696" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D696" s="2" t="s">
         <v>6</v>
@@ -21662,7 +21691,7 @@
         <v>725</v>
       </c>
       <c r="C697" s="2" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D697" s="2" t="s">
         <v>6</v>
@@ -21689,7 +21718,7 @@
         <v>726</v>
       </c>
       <c r="C698" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D698" s="2" t="s">
         <v>6</v>
@@ -21716,7 +21745,7 @@
         <v>727</v>
       </c>
       <c r="C699" s="2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D699" s="2" t="s">
         <v>6</v>
@@ -21743,7 +21772,7 @@
         <v>728</v>
       </c>
       <c r="C700" s="2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D700" s="2" t="s">
         <v>6</v>
@@ -21770,7 +21799,7 @@
         <v>729</v>
       </c>
       <c r="C701" s="2" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D701" s="2" t="s">
         <v>6</v>
@@ -21797,7 +21826,7 @@
         <v>730</v>
       </c>
       <c r="C702" s="2" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D702" s="2" t="s">
         <v>6</v>
@@ -21824,7 +21853,7 @@
         <v>731</v>
       </c>
       <c r="C703" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D703" s="2" t="s">
         <v>6</v>
@@ -21851,7 +21880,7 @@
         <v>732</v>
       </c>
       <c r="C704" s="2" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D704" s="2" t="s">
         <v>6</v>
@@ -21878,7 +21907,7 @@
         <v>733</v>
       </c>
       <c r="C705" s="2" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D705" s="2" t="s">
         <v>6</v>
@@ -21905,7 +21934,7 @@
         <v>734</v>
       </c>
       <c r="C706" s="2" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D706" s="2" t="s">
         <v>6</v>
@@ -21932,7 +21961,7 @@
         <v>735</v>
       </c>
       <c r="C707" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D707" s="2" t="s">
         <v>6</v>
@@ -21959,7 +21988,7 @@
         <v>736</v>
       </c>
       <c r="C708" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D708" s="2" t="s">
         <v>6</v>
@@ -21986,7 +22015,7 @@
         <v>737</v>
       </c>
       <c r="C709" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D709" s="2" t="s">
         <v>6</v>
@@ -22013,7 +22042,7 @@
         <v>738</v>
       </c>
       <c r="C710" s="2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D710" s="2" t="s">
         <v>6</v>
@@ -22040,7 +22069,7 @@
         <v>739</v>
       </c>
       <c r="C711" s="2" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D711" s="2" t="s">
         <v>6</v>
@@ -22067,7 +22096,7 @@
         <v>740</v>
       </c>
       <c r="C712" s="2" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D712" s="2" t="s">
         <v>6</v>
@@ -22094,7 +22123,7 @@
         <v>741</v>
       </c>
       <c r="C713" s="2" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D713" s="2" t="s">
         <v>6</v>
@@ -22121,7 +22150,7 @@
         <v>742</v>
       </c>
       <c r="C714" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D714" s="2" t="s">
         <v>6</v>
@@ -22148,7 +22177,7 @@
         <v>743</v>
       </c>
       <c r="C715" s="2" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D715" s="2" t="s">
         <v>6</v>
@@ -22175,7 +22204,7 @@
         <v>744</v>
       </c>
       <c r="C716" s="2" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D716" s="2" t="s">
         <v>6</v>
@@ -22202,7 +22231,7 @@
         <v>745</v>
       </c>
       <c r="C717" s="2" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D717" s="2" t="s">
         <v>6</v>
@@ -22229,7 +22258,7 @@
         <v>746</v>
       </c>
       <c r="C718" s="2" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D718" s="2" t="s">
         <v>6</v>
@@ -22256,7 +22285,7 @@
         <v>747</v>
       </c>
       <c r="C719" s="2" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D719" s="2" t="s">
         <v>6</v>
@@ -22283,7 +22312,7 @@
         <v>748</v>
       </c>
       <c r="C720" s="2" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D720" s="2" t="s">
         <v>6</v>
@@ -22310,7 +22339,7 @@
         <v>749</v>
       </c>
       <c r="C721" s="2" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D721" s="2" t="s">
         <v>6</v>
@@ -22337,7 +22366,7 @@
         <v>750</v>
       </c>
       <c r="C722" s="2" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D722" s="2" t="s">
         <v>6</v>
@@ -22364,7 +22393,7 @@
         <v>751</v>
       </c>
       <c r="C723" s="2" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D723" s="2" t="s">
         <v>6</v>
@@ -22391,7 +22420,7 @@
         <v>752</v>
       </c>
       <c r="C724" s="2" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D724" s="2" t="s">
         <v>6</v>
@@ -22418,7 +22447,7 @@
         <v>753</v>
       </c>
       <c r="C725" s="2" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D725" s="2" t="s">
         <v>6</v>
@@ -22445,7 +22474,7 @@
         <v>754</v>
       </c>
       <c r="C726" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D726" s="2" t="s">
         <v>6</v>
@@ -22472,7 +22501,7 @@
         <v>755</v>
       </c>
       <c r="C727" s="2" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D727" s="2" t="s">
         <v>6</v>
@@ -22499,7 +22528,7 @@
         <v>756</v>
       </c>
       <c r="C728" s="2" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D728" s="2" t="s">
         <v>6</v>
@@ -22526,7 +22555,7 @@
         <v>757</v>
       </c>
       <c r="C729" s="2" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D729" s="2" t="s">
         <v>6</v>
@@ -22553,7 +22582,7 @@
         <v>758</v>
       </c>
       <c r="C730" s="2" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D730" s="2" t="s">
         <v>6</v>
@@ -22580,7 +22609,7 @@
         <v>759</v>
       </c>
       <c r="C731" s="2" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D731" s="2" t="s">
         <v>6</v>
@@ -22607,7 +22636,7 @@
         <v>760</v>
       </c>
       <c r="C732" s="2" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D732" s="2" t="s">
         <v>6</v>
@@ -22634,7 +22663,7 @@
         <v>761</v>
       </c>
       <c r="C733" s="2" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D733" s="2" t="s">
         <v>6</v>
